--- a/mbs-perturbation/mega/elm/nearmiss/ELM_rbf_linf_nearmiss_results.xlsx
+++ b/mbs-perturbation/mega/elm/nearmiss/ELM_rbf_linf_nearmiss_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4563612679114198</v>
+        <v>0.3969344608879493</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4886867790594498</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5543478260869565</v>
+        <v>0.4740190880169672</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2945632798573974</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5579999999999999</v>
+        <v>0.4880952380952381</v>
       </c>
     </row>
     <row r="7">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4703918305830447</v>
+        <v>0.4562542018444754</v>
       </c>
     </row>
   </sheetData>
